--- a/simulations/raw_inclusion_exclusion/Chou_2003 IEC/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Chou_2003 IEC/output/tables/time_to_discovery/tds_sim.xlsx
@@ -414,10 +414,10 @@
         <v>191</v>
       </c>
       <c r="C2">
-        <v>780</v>
+        <v>222</v>
       </c>
       <c r="D2">
-        <v>485.5</v>
+        <v>206.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +428,10 @@
         <v>75</v>
       </c>
       <c r="C3">
-        <v>645</v>
+        <v>124</v>
       </c>
       <c r="D3">
-        <v>360</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>60</v>
       </c>
       <c r="C4">
-        <v>663</v>
+        <v>111</v>
       </c>
       <c r="D4">
-        <v>361.5</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,10 +456,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>665</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>334.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,10 +470,10 @@
         <v>192</v>
       </c>
       <c r="C6">
-        <v>781</v>
+        <v>223</v>
       </c>
       <c r="D6">
-        <v>486.5</v>
+        <v>207.5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,10 +484,10 @@
         <v>33</v>
       </c>
       <c r="C7">
-        <v>677</v>
+        <v>80</v>
       </c>
       <c r="D7">
-        <v>355</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,10 +498,10 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>681</v>
+        <v>76</v>
       </c>
       <c r="D8">
-        <v>351</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,10 +512,10 @@
         <v>1545</v>
       </c>
       <c r="C9">
-        <v>201</v>
+        <v>1446</v>
       </c>
       <c r="D9">
-        <v>873</v>
+        <v>1495.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,10 +526,10 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>673</v>
+        <v>75</v>
       </c>
       <c r="D10">
-        <v>342.5</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,10 +540,10 @@
         <v>61</v>
       </c>
       <c r="C11">
-        <v>649</v>
+        <v>118</v>
       </c>
       <c r="D11">
-        <v>355</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,10 +554,10 @@
         <v>45</v>
       </c>
       <c r="C12">
-        <v>676</v>
+        <v>97</v>
       </c>
       <c r="D12">
-        <v>360.5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -565,10 +565,10 @@
         <v>1296</v>
       </c>
       <c r="C13">
-        <v>687</v>
+        <v>94</v>
       </c>
       <c r="D13">
-        <v>687</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -579,10 +579,10 @@
         <v>917</v>
       </c>
       <c r="C14">
-        <v>1264</v>
+        <v>710</v>
       </c>
       <c r="D14">
-        <v>1090.5</v>
+        <v>813.5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -593,10 +593,10 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>666</v>
+        <v>64</v>
       </c>
       <c r="D15">
-        <v>335.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -607,10 +607,10 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>667</v>
+        <v>65</v>
       </c>
       <c r="D16">
-        <v>336.5</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -621,7 +621,7 @@
         <v>226.2142857142857</v>
       </c>
       <c r="C17">
-        <v>691.6666666666666</v>
+        <v>237.8666666666667</v>
       </c>
     </row>
   </sheetData>
